--- a/libertadores/datasets_liberta/classificacao_por_grupo_fase_2.xlsx
+++ b/libertadores/datasets_liberta/classificacao_por_grupo_fase_2.xlsx
@@ -73,12 +73,12 @@
     <t>Tabajara de Inhaua FC2</t>
   </si>
   <si>
+    <t>Texas Club 2025</t>
+  </si>
+  <si>
     <t>pura bucha /botafogo</t>
   </si>
   <si>
-    <t>Texas Club 2025</t>
-  </si>
-  <si>
     <t>Grupo K</t>
   </si>
   <si>
@@ -103,10 +103,10 @@
     <t>KillerColorado</t>
   </si>
   <si>
+    <t>Gig@ntte</t>
+  </si>
+  <si>
     <t>Gremiomaniasm</t>
-  </si>
-  <si>
-    <t>Gig@ntte</t>
   </si>
 </sst>
 </file>
@@ -522,13 +522,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>119.89013671875</v>
+        <v>640.77001953125</v>
       </c>
       <c r="H2">
         <v>87.7099609375</v>
       </c>
       <c r="I2">
-        <v>32.18017578125</v>
+        <v>553.06005859375</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -554,13 +554,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>106.490234375</v>
+        <v>632.80029296875</v>
       </c>
       <c r="H3">
         <v>96.39013671875</v>
       </c>
       <c r="I3">
-        <v>10.10009765625</v>
+        <v>536.41015625</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -586,13 +586,13 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>96.39013671875</v>
+        <v>602.139892578125</v>
       </c>
       <c r="H4">
         <v>106.490234375</v>
       </c>
       <c r="I4">
-        <v>-10.10009765625</v>
+        <v>495.649658203125</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -618,13 +618,13 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>87.7099609375</v>
+        <v>601.26025390625</v>
       </c>
       <c r="H5">
         <v>119.89013671875</v>
       </c>
       <c r="I5">
-        <v>-32.18017578125</v>
+        <v>481.3701171875</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -695,13 +695,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>127.759765625</v>
+        <v>645.849609375</v>
       </c>
       <c r="H2">
         <v>98.7099609375</v>
       </c>
       <c r="I2">
-        <v>29.0498046875</v>
+        <v>547.1396484375</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>113.89013671875</v>
+        <v>636.0107421875</v>
       </c>
       <c r="H3">
         <v>98.7900390625</v>
       </c>
       <c r="I3">
-        <v>15.10009765625</v>
+        <v>537.220703125</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -759,13 +759,13 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>98.7900390625</v>
+        <v>600.33984375</v>
       </c>
       <c r="H4">
-        <v>113.89013671875</v>
+        <v>127.759765625</v>
       </c>
       <c r="I4">
-        <v>-15.10009765625</v>
+        <v>472.580078125</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -791,13 +791,13 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>98.7099609375</v>
+        <v>565.76953125</v>
       </c>
       <c r="H5">
-        <v>127.759765625</v>
+        <v>113.89013671875</v>
       </c>
       <c r="I5">
-        <v>-29.0498046875</v>
+        <v>451.87939453125</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>94.33984375</v>
+        <v>646.4794921875</v>
       </c>
       <c r="H2">
         <v>90.10986328125</v>
       </c>
       <c r="I2">
-        <v>4.22998046875</v>
+        <v>556.36962890625</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -900,13 +900,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>87.66015625</v>
+        <v>601.35009765625</v>
       </c>
       <c r="H3">
         <v>79.66015625</v>
       </c>
       <c r="I3">
-        <v>8</v>
+        <v>521.68994140625</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -932,13 +932,13 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>90.10986328125</v>
+        <v>597.5400390625</v>
       </c>
       <c r="H4">
         <v>94.33984375</v>
       </c>
       <c r="I4">
-        <v>-4.22998046875</v>
+        <v>503.2001953125</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -964,13 +964,13 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>79.66015625</v>
+        <v>523.06005859375</v>
       </c>
       <c r="H5">
         <v>87.66015625</v>
       </c>
       <c r="I5">
-        <v>-8</v>
+        <v>435.39990234375</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1041,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>96.68994140625</v>
+        <v>610.83056640625</v>
       </c>
       <c r="H2">
         <v>93.740234375</v>
       </c>
       <c r="I2">
-        <v>2.94970703125</v>
+        <v>517.09033203125</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1073,13 +1073,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>95.509765625</v>
+        <v>564.939697265625</v>
       </c>
       <c r="H3">
         <v>90.35986328125</v>
       </c>
       <c r="I3">
-        <v>5.14990234375</v>
+        <v>474.579833984375</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1105,13 +1105,13 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>93.740234375</v>
+        <v>595.33935546875</v>
       </c>
       <c r="H4">
-        <v>96.68994140625</v>
+        <v>95.509765625</v>
       </c>
       <c r="I4">
-        <v>-2.94970703125</v>
+        <v>499.82958984375</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1137,13 +1137,13 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>90.35986328125</v>
+        <v>594.359619140625</v>
       </c>
       <c r="H5">
-        <v>95.509765625</v>
+        <v>96.68994140625</v>
       </c>
       <c r="I5">
-        <v>-5.14990234375</v>
+        <v>497.669677734375</v>
       </c>
       <c r="J5">
         <v>4</v>

--- a/libertadores/datasets_liberta/classificacao_por_grupo_fase_2.xlsx
+++ b/libertadores/datasets_liberta/classificacao_por_grupo_fase_2.xlsx
@@ -52,12 +52,12 @@
     <t>Grupo I</t>
   </si>
   <si>
+    <t>Analove10 ITAQUI GRANDE!!</t>
+  </si>
+  <si>
     <t>Dom Camillo68</t>
   </si>
   <si>
-    <t>Analove10 ITAQUI GRANDE!!</t>
-  </si>
-  <si>
     <t>Super Vasco f.c</t>
   </si>
   <si>
@@ -85,12 +85,12 @@
     <t>Real SCI</t>
   </si>
   <si>
+    <t>Lá do Itaqui</t>
+  </si>
+  <si>
     <t>KING LEONN</t>
   </si>
   <si>
-    <t>Lá do Itaqui</t>
-  </si>
-  <si>
     <t>Laranjja Mecannica</t>
   </si>
   <si>
@@ -100,10 +100,10 @@
     <t>TORRESMO COM PINGA</t>
   </si>
   <si>
+    <t>Gig@ntte</t>
+  </si>
+  <si>
     <t>KillerColorado</t>
-  </si>
-  <si>
-    <t>Gig@ntte</t>
   </si>
   <si>
     <t>Gremiomaniasm</t>
@@ -510,10 +510,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -522,13 +522,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>640.77001953125</v>
+        <v>767.99072265625</v>
       </c>
       <c r="H2">
-        <v>87.7099609375</v>
+        <v>214.84033203125</v>
       </c>
       <c r="I2">
-        <v>553.06005859375</v>
+        <v>553.150390625</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -551,16 +551,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>632.80029296875</v>
+        <v>733.81005859375</v>
       </c>
       <c r="H3">
-        <v>96.39013671875</v>
+        <v>209.64990234375</v>
       </c>
       <c r="I3">
-        <v>536.41015625</v>
+        <v>524.16015625</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -574,10 +574,10 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>602.139892578125</v>
+        <v>724.079833984375</v>
       </c>
       <c r="H4">
-        <v>106.490234375</v>
+        <v>199.5302734375</v>
       </c>
       <c r="I4">
-        <v>495.649658203125</v>
+        <v>524.549560546875</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -615,16 +615,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>601.26025390625</v>
+        <v>719.71044921875</v>
       </c>
       <c r="H5">
-        <v>119.89013671875</v>
+        <v>255.08056640625</v>
       </c>
       <c r="I5">
-        <v>481.3701171875</v>
+        <v>464.6298828125</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -683,10 +683,10 @@
         <v>16</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -695,13 +695,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>645.849609375</v>
+        <v>785.25</v>
       </c>
       <c r="H2">
-        <v>98.7099609375</v>
+        <v>234.2001953125</v>
       </c>
       <c r="I2">
-        <v>547.1396484375</v>
+        <v>551.0498046875</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -724,16 +724,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>636.0107421875</v>
+        <v>771.5009765625</v>
       </c>
       <c r="H3">
-        <v>98.7900390625</v>
+        <v>238.1904296875</v>
       </c>
       <c r="I3">
-        <v>537.220703125</v>
+        <v>533.310546875</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -747,10 +747,10 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -759,13 +759,13 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>600.33984375</v>
+        <v>709.48974609375</v>
       </c>
       <c r="H4">
-        <v>127.759765625</v>
+        <v>204.099609375</v>
       </c>
       <c r="I4">
-        <v>472.580078125</v>
+        <v>505.39013671875</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>565.76953125</v>
+        <v>642.109375</v>
       </c>
       <c r="H5">
-        <v>113.89013671875</v>
+        <v>223.0400390625</v>
       </c>
       <c r="I5">
-        <v>451.87939453125</v>
+        <v>419.0693359375</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>646.4794921875</v>
+        <v>754.9296875</v>
       </c>
       <c r="H2">
-        <v>90.10986328125</v>
+        <v>215.259765625</v>
       </c>
       <c r="I2">
-        <v>556.36962890625</v>
+        <v>539.669921875</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -897,16 +897,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>601.35009765625</v>
+        <v>739.23046875</v>
       </c>
       <c r="H3">
-        <v>79.66015625</v>
+        <v>192.7900390625</v>
       </c>
       <c r="I3">
-        <v>521.68994140625</v>
+        <v>546.4404296875</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -920,10 +920,10 @@
         <v>23</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -932,13 +932,13 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>597.5400390625</v>
+        <v>699.80029296875</v>
       </c>
       <c r="H4">
-        <v>94.33984375</v>
+        <v>221.3505859375</v>
       </c>
       <c r="I4">
-        <v>503.2001953125</v>
+        <v>478.44970703125</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -952,10 +952,10 @@
         <v>24</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -964,13 +964,13 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>523.06005859375</v>
+        <v>648.2099609375</v>
       </c>
       <c r="H5">
-        <v>87.66015625</v>
+        <v>196.1103515625</v>
       </c>
       <c r="I5">
-        <v>435.39990234375</v>
+        <v>452.099609375</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1029,10 +1029,10 @@
         <v>26</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1041,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>610.83056640625</v>
+        <v>717.48046875</v>
       </c>
       <c r="H2">
-        <v>93.740234375</v>
+        <v>183.0302734375</v>
       </c>
       <c r="I2">
-        <v>517.09033203125</v>
+        <v>534.4501953125</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1070,16 +1070,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>564.939697265625</v>
+        <v>693.4892578125</v>
       </c>
       <c r="H3">
-        <v>90.35986328125</v>
+        <v>169.01953125</v>
       </c>
       <c r="I3">
-        <v>474.579833984375</v>
+        <v>524.4697265625</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1093,10 +1093,10 @@
         <v>28</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>595.33935546875</v>
+        <v>654.229736328125</v>
       </c>
       <c r="H4">
-        <v>95.509765625</v>
+        <v>197.009765625</v>
       </c>
       <c r="I4">
-        <v>499.82958984375</v>
+        <v>457.219970703125</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1134,16 +1134,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>594.359619140625</v>
+        <v>667.869384765625</v>
       </c>
       <c r="H5">
-        <v>96.68994140625</v>
+        <v>194.83984375</v>
       </c>
       <c r="I5">
-        <v>497.669677734375</v>
+        <v>473.029541015625</v>
       </c>
       <c r="J5">
         <v>4</v>

--- a/libertadores/datasets_liberta/classificacao_por_grupo_fase_2.xlsx
+++ b/libertadores/datasets_liberta/classificacao_por_grupo_fase_2.xlsx
@@ -55,12 +55,12 @@
     <t>Analove10 ITAQUI GRANDE!!</t>
   </si>
   <si>
+    <t>Super Vasco f.c</t>
+  </si>
+  <si>
     <t>Dom Camillo68</t>
   </si>
   <si>
-    <t>Super Vasco f.c</t>
-  </si>
-  <si>
     <t>lsauer fc</t>
   </si>
   <si>
@@ -70,12 +70,12 @@
     <t>TEAM LOPES 99</t>
   </si>
   <si>
+    <t>Texas Club 2025</t>
+  </si>
+  <si>
     <t>Tabajara de Inhaua FC2</t>
   </si>
   <si>
-    <t>Texas Club 2025</t>
-  </si>
-  <si>
     <t>pura bucha /botafogo</t>
   </si>
   <si>
@@ -100,10 +100,10 @@
     <t>TORRESMO COM PINGA</t>
   </si>
   <si>
+    <t>KillerColorado</t>
+  </si>
+  <si>
     <t>Gig@ntte</t>
-  </si>
-  <si>
-    <t>KillerColorado</t>
   </si>
   <si>
     <t>Gremiomaniasm</t>
@@ -510,10 +510,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -522,13 +522,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>767.99072265625</v>
+        <v>842.310546875</v>
       </c>
       <c r="H2">
-        <v>214.84033203125</v>
+        <v>283.1904296875</v>
       </c>
       <c r="I2">
-        <v>553.150390625</v>
+        <v>559.1201171875</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -542,10 +542,10 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -554,13 +554,13 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>733.81005859375</v>
+        <v>797.829833984375</v>
       </c>
       <c r="H3">
-        <v>209.64990234375</v>
+        <v>268.68017578125</v>
       </c>
       <c r="I3">
-        <v>524.16015625</v>
+        <v>529.149658203125</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -583,16 +583,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>724.079833984375</v>
+        <v>802.16015625</v>
       </c>
       <c r="H4">
-        <v>199.5302734375</v>
+        <v>283.9697265625</v>
       </c>
       <c r="I4">
-        <v>524.549560546875</v>
+        <v>518.1904296875</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -615,16 +615,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>719.71044921875</v>
+        <v>788.8603515625</v>
       </c>
       <c r="H5">
-        <v>255.08056640625</v>
+        <v>328.83056640625</v>
       </c>
       <c r="I5">
-        <v>464.6298828125</v>
+        <v>460.02978515625</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -692,16 +692,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>785.25</v>
+        <v>863.56982421875</v>
       </c>
       <c r="H2">
-        <v>234.2001953125</v>
+        <v>315.900390625</v>
       </c>
       <c r="I2">
-        <v>551.0498046875</v>
+        <v>547.66943359375</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -715,10 +715,10 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>771.5009765625</v>
+        <v>793.3896484375</v>
       </c>
       <c r="H3">
-        <v>238.1904296875</v>
+        <v>260.9697265625</v>
       </c>
       <c r="I3">
-        <v>533.310546875</v>
+        <v>532.419921875</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -756,16 +756,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>709.48974609375</v>
+        <v>828.37109375</v>
       </c>
       <c r="H4">
-        <v>204.099609375</v>
+        <v>322.09033203125</v>
       </c>
       <c r="I4">
-        <v>505.39013671875</v>
+        <v>506.28076171875</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -779,10 +779,10 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -791,13 +791,13 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>642.109375</v>
+        <v>723.8095703125</v>
       </c>
       <c r="H5">
-        <v>223.0400390625</v>
+        <v>301.35986328125</v>
       </c>
       <c r="I5">
-        <v>419.0693359375</v>
+        <v>422.44970703125</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -856,10 +856,10 @@
         <v>21</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>754.9296875</v>
+        <v>815.499755859375</v>
       </c>
       <c r="H2">
-        <v>215.259765625</v>
+        <v>275.6796875</v>
       </c>
       <c r="I2">
-        <v>539.669921875</v>
+        <v>539.820068359375</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -888,10 +888,10 @@
         <v>22</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -900,13 +900,13 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>739.23046875</v>
+        <v>814.45068359375</v>
       </c>
       <c r="H3">
-        <v>192.7900390625</v>
+        <v>247.510009765625</v>
       </c>
       <c r="I3">
-        <v>546.4404296875</v>
+        <v>566.940673828125</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -929,16 +929,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>699.80029296875</v>
+        <v>760.22021484375</v>
       </c>
       <c r="H4">
-        <v>221.3505859375</v>
+        <v>281.920654296875</v>
       </c>
       <c r="I4">
-        <v>478.44970703125</v>
+        <v>478.299560546875</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -961,16 +961,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>648.2099609375</v>
+        <v>702.929931640625</v>
       </c>
       <c r="H5">
-        <v>196.1103515625</v>
+        <v>271.33056640625</v>
       </c>
       <c r="I5">
-        <v>452.099609375</v>
+        <v>431.599365234375</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1029,10 +1029,10 @@
         <v>26</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1041,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>717.48046875</v>
+        <v>791.73046875</v>
       </c>
       <c r="H2">
-        <v>183.0302734375</v>
+        <v>248.4501953125</v>
       </c>
       <c r="I2">
-        <v>534.4501953125</v>
+        <v>543.2802734375</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1061,10 +1061,10 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1073,13 +1073,13 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>693.4892578125</v>
+        <v>728.579833984375</v>
       </c>
       <c r="H3">
-        <v>169.01953125</v>
+        <v>261.009765625</v>
       </c>
       <c r="I3">
-        <v>524.4697265625</v>
+        <v>467.570068359375</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>654.229736328125</v>
+        <v>758.9091796875</v>
       </c>
       <c r="H4">
-        <v>197.009765625</v>
+        <v>243.26953125</v>
       </c>
       <c r="I4">
-        <v>457.219970703125</v>
+        <v>515.6396484375</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1134,16 +1134,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>667.869384765625</v>
+        <v>731.869384765625</v>
       </c>
       <c r="H5">
-        <v>194.83984375</v>
+        <v>269.18994140625</v>
       </c>
       <c r="I5">
-        <v>473.029541015625</v>
+        <v>462.679443359375</v>
       </c>
       <c r="J5">
         <v>4</v>

--- a/libertadores/datasets_liberta/classificacao_por_grupo_fase_2.xlsx
+++ b/libertadores/datasets_liberta/classificacao_por_grupo_fase_2.xlsx
@@ -67,18 +67,18 @@
     <t>Grupo J</t>
   </si>
   <si>
+    <t>Texas Club 2025</t>
+  </si>
+  <si>
     <t>TEAM LOPES 99</t>
   </si>
   <si>
-    <t>Texas Club 2025</t>
+    <t>pura bucha /botafogo</t>
   </si>
   <si>
     <t>Tabajara de Inhaua FC2</t>
   </si>
   <si>
-    <t>pura bucha /botafogo</t>
-  </si>
-  <si>
     <t>Grupo K</t>
   </si>
   <si>
@@ -88,10 +88,10 @@
     <t>Lá do Itaqui</t>
   </si>
   <si>
+    <t>Laranjja Mecannica</t>
+  </si>
+  <si>
     <t>KING LEONN</t>
-  </si>
-  <si>
-    <t>Laranjja Mecannica</t>
   </si>
   <si>
     <t>Grupo L</t>
@@ -510,10 +510,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -522,13 +522,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>842.310546875</v>
+        <v>922.1806640625</v>
       </c>
       <c r="H2">
-        <v>283.1904296875</v>
+        <v>360.16064453125</v>
       </c>
       <c r="I2">
-        <v>559.1201171875</v>
+        <v>562.02001953125</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -551,16 +551,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>797.829833984375</v>
+        <v>874.800048828125</v>
       </c>
       <c r="H3">
-        <v>268.68017578125</v>
+        <v>348.55029296875</v>
       </c>
       <c r="I3">
-        <v>529.149658203125</v>
+        <v>526.249755859375</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -574,10 +574,10 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>802.16015625</v>
+        <v>866.66015625</v>
       </c>
       <c r="H4">
-        <v>283.9697265625</v>
+        <v>341.1396484375</v>
       </c>
       <c r="I4">
-        <v>518.1904296875</v>
+        <v>525.5205078125</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -615,16 +615,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>788.8603515625</v>
+        <v>846.0302734375</v>
       </c>
       <c r="H5">
-        <v>328.83056640625</v>
+        <v>393.33056640625</v>
       </c>
       <c r="I5">
-        <v>460.02978515625</v>
+        <v>452.69970703125</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -683,10 +683,10 @@
         <v>16</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -695,13 +695,13 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>863.56982421875</v>
+        <v>867.0595703125</v>
       </c>
       <c r="H2">
-        <v>315.900390625</v>
+        <v>315.23974609375</v>
       </c>
       <c r="I2">
-        <v>547.66943359375</v>
+        <v>551.81982421875</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -724,16 +724,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>793.3896484375</v>
+        <v>917.83984375</v>
       </c>
       <c r="H3">
-        <v>260.9697265625</v>
+        <v>389.5703125</v>
       </c>
       <c r="I3">
-        <v>532.419921875</v>
+        <v>528.26953125</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -747,10 +747,10 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -759,13 +759,13 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>828.37109375</v>
+        <v>792.4794921875</v>
       </c>
       <c r="H4">
-        <v>322.09033203125</v>
+        <v>355.429931640625</v>
       </c>
       <c r="I4">
-        <v>506.28076171875</v>
+        <v>437.049560546875</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>723.8095703125</v>
+        <v>882.441162109375</v>
       </c>
       <c r="H5">
-        <v>301.35986328125</v>
+        <v>390.76025390625</v>
       </c>
       <c r="I5">
-        <v>422.44970703125</v>
+        <v>491.680908203125</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -856,10 +856,10 @@
         <v>21</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>815.499755859375</v>
+        <v>865.869873046875</v>
       </c>
       <c r="H2">
-        <v>275.6796875</v>
+        <v>294.0296630859375</v>
       </c>
       <c r="I2">
-        <v>539.820068359375</v>
+        <v>571.8402099609375</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -897,16 +897,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>814.45068359375</v>
+        <v>832.8006591796875</v>
       </c>
       <c r="H3">
-        <v>247.510009765625</v>
+        <v>297.880126953125</v>
       </c>
       <c r="I3">
-        <v>566.940673828125</v>
+        <v>534.9205322265625</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -920,10 +920,10 @@
         <v>23</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -932,13 +932,13 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>760.22021484375</v>
+        <v>747.300048828125</v>
       </c>
       <c r="H4">
-        <v>281.920654296875</v>
+        <v>312.1005859375</v>
       </c>
       <c r="I4">
-        <v>478.299560546875</v>
+        <v>435.199462890625</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -961,16 +961,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>702.929931640625</v>
+        <v>800.990234375</v>
       </c>
       <c r="H5">
-        <v>271.33056640625</v>
+        <v>326.290771484375</v>
       </c>
       <c r="I5">
-        <v>431.599365234375</v>
+        <v>474.699462890625</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1029,10 +1029,10 @@
         <v>26</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1041,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>791.73046875</v>
+        <v>865.30029296875</v>
       </c>
       <c r="H2">
-        <v>248.4501953125</v>
+        <v>301.8203125</v>
       </c>
       <c r="I2">
-        <v>543.2802734375</v>
+        <v>563.47998046875</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1061,10 +1061,10 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1073,13 +1073,13 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>728.579833984375</v>
+        <v>795.849853515625</v>
       </c>
       <c r="H3">
-        <v>261.009765625</v>
+        <v>314.979736328125</v>
       </c>
       <c r="I3">
-        <v>467.570068359375</v>
+        <v>480.8701171875</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>758.9091796875</v>
+        <v>812.879150390625</v>
       </c>
       <c r="H4">
-        <v>243.26953125</v>
+        <v>310.53955078125</v>
       </c>
       <c r="I4">
-        <v>515.6396484375</v>
+        <v>502.339599609375</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1134,16 +1134,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>731.869384765625</v>
+        <v>785.239501953125</v>
       </c>
       <c r="H5">
-        <v>269.18994140625</v>
+        <v>342.759765625</v>
       </c>
       <c r="I5">
-        <v>462.679443359375</v>
+        <v>442.479736328125</v>
       </c>
       <c r="J5">
         <v>4</v>

--- a/libertadores/datasets_liberta/classificacao_por_grupo_fase_2.xlsx
+++ b/libertadores/datasets_liberta/classificacao_por_grupo_fase_2.xlsx
@@ -73,25 +73,25 @@
     <t>TEAM LOPES 99</t>
   </si>
   <si>
+    <t>Tabajara de Inhaua FC2</t>
+  </si>
+  <si>
     <t>pura bucha /botafogo</t>
   </si>
   <si>
-    <t>Tabajara de Inhaua FC2</t>
-  </si>
-  <si>
     <t>Grupo K</t>
   </si>
   <si>
     <t>Real SCI</t>
   </si>
   <si>
+    <t>KING LEONN</t>
+  </si>
+  <si>
     <t>Lá do Itaqui</t>
   </si>
   <si>
     <t>Laranjja Mecannica</t>
-  </si>
-  <si>
-    <t>KING LEONN</t>
   </si>
   <si>
     <t>Grupo L</t>
@@ -519,16 +519,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>922.1806640625</v>
+        <v>1027.720703125</v>
       </c>
       <c r="H2">
-        <v>360.16064453125</v>
+        <v>478.470703125</v>
       </c>
       <c r="I2">
-        <v>562.02001953125</v>
+        <v>549.25</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -542,10 +542,10 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -554,13 +554,13 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>874.800048828125</v>
+        <v>999.270263671875</v>
       </c>
       <c r="H3">
-        <v>348.55029296875</v>
+        <v>472.47021484375</v>
       </c>
       <c r="I3">
-        <v>526.249755859375</v>
+        <v>526.800048828125</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -583,16 +583,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>866.66015625</v>
+        <v>990.580078125</v>
       </c>
       <c r="H4">
-        <v>341.1396484375</v>
+        <v>465.60986328125</v>
       </c>
       <c r="I4">
-        <v>525.5205078125</v>
+        <v>524.97021484375</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -606,10 +606,10 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -618,13 +618,13 @@
         <v>4</v>
       </c>
       <c r="G5">
-        <v>846.0302734375</v>
+        <v>964.34033203125</v>
       </c>
       <c r="H5">
-        <v>393.33056640625</v>
+        <v>498.87060546875</v>
       </c>
       <c r="I5">
-        <v>452.69970703125</v>
+        <v>465.4697265625</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -683,10 +683,10 @@
         <v>16</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -695,13 +695,13 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>867.0595703125</v>
+        <v>977.5693359375</v>
       </c>
       <c r="H2">
-        <v>315.23974609375</v>
+        <v>387.39990234375</v>
       </c>
       <c r="I2">
-        <v>551.81982421875</v>
+        <v>590.16943359375</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -724,16 +724,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>917.83984375</v>
+        <v>1002.580078125</v>
       </c>
       <c r="H3">
-        <v>389.5703125</v>
+        <v>505.34033203125</v>
       </c>
       <c r="I3">
-        <v>528.26953125</v>
+        <v>497.23974609375</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -756,16 +756,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>792.4794921875</v>
+        <v>998.211181640625</v>
       </c>
       <c r="H4">
-        <v>355.429931640625</v>
+        <v>475.50048828125</v>
       </c>
       <c r="I4">
-        <v>437.049560546875</v>
+        <v>522.710693359375</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -779,10 +779,10 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -791,13 +791,13 @@
         <v>3</v>
       </c>
       <c r="G5">
-        <v>882.441162109375</v>
+        <v>864.6396484375</v>
       </c>
       <c r="H5">
-        <v>390.76025390625</v>
+        <v>465.939697265625</v>
       </c>
       <c r="I5">
-        <v>491.680908203125</v>
+        <v>398.699951171875</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -856,10 +856,10 @@
         <v>21</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>865.869873046875</v>
+        <v>970.340087890625</v>
       </c>
       <c r="H2">
-        <v>294.0296630859375</v>
+        <v>370.0394287109375</v>
       </c>
       <c r="I2">
-        <v>571.8402099609375</v>
+        <v>600.3006591796875</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -897,16 +897,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>832.8006591796875</v>
+        <v>880.900390625</v>
       </c>
       <c r="H3">
-        <v>297.880126953125</v>
+        <v>367.220703125</v>
       </c>
       <c r="I3">
-        <v>534.9205322265625</v>
+        <v>513.6796875</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -929,16 +929,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>747.300048828125</v>
+        <v>873.7305908203125</v>
       </c>
       <c r="H4">
-        <v>312.1005859375</v>
+        <v>377.790283203125</v>
       </c>
       <c r="I4">
-        <v>435.199462890625</v>
+        <v>495.9403076171875</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -952,10 +952,10 @@
         <v>24</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -964,13 +964,13 @@
         <v>3</v>
       </c>
       <c r="G5">
-        <v>800.990234375</v>
+        <v>823.309814453125</v>
       </c>
       <c r="H5">
-        <v>326.290771484375</v>
+        <v>416.57080078125</v>
       </c>
       <c r="I5">
-        <v>474.699462890625</v>
+        <v>406.739013671875</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1029,10 +1029,10 @@
         <v>26</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1041,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>865.30029296875</v>
+        <v>985.5703125</v>
       </c>
       <c r="H2">
-        <v>301.8203125</v>
+        <v>378.400390625</v>
       </c>
       <c r="I2">
-        <v>563.47998046875</v>
+        <v>607.169921875</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1070,16 +1070,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>795.849853515625</v>
+        <v>872.429931640625</v>
       </c>
       <c r="H3">
-        <v>314.979736328125</v>
+        <v>435.249755859375</v>
       </c>
       <c r="I3">
-        <v>480.8701171875</v>
+        <v>437.18017578125</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1093,10 +1093,10 @@
         <v>28</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>812.879150390625</v>
+        <v>915.739013671875</v>
       </c>
       <c r="H4">
-        <v>310.53955078125</v>
+        <v>408.349609375</v>
       </c>
       <c r="I4">
-        <v>502.339599609375</v>
+        <v>507.389404296875</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1134,16 +1134,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>785.239501953125</v>
+        <v>883.049560546875</v>
       </c>
       <c r="H5">
-        <v>342.759765625</v>
+        <v>445.61962890625</v>
       </c>
       <c r="I5">
-        <v>442.479736328125</v>
+        <v>437.429931640625</v>
       </c>
       <c r="J5">
         <v>4</v>

--- a/libertadores/datasets_liberta/classificacao_por_grupo_fase_2.xlsx
+++ b/libertadores/datasets_liberta/classificacao_por_grupo_fase_2.xlsx
@@ -70,25 +70,25 @@
     <t>Texas Club 2025</t>
   </si>
   <si>
+    <t>pura bucha /botafogo</t>
+  </si>
+  <si>
     <t>TEAM LOPES 99</t>
   </si>
   <si>
     <t>Tabajara de Inhaua FC2</t>
   </si>
   <si>
-    <t>pura bucha /botafogo</t>
-  </si>
-  <si>
     <t>Grupo K</t>
   </si>
   <si>
     <t>Real SCI</t>
   </si>
   <si>
+    <t>Lá do Itaqui</t>
+  </si>
+  <si>
     <t>KING LEONN</t>
-  </si>
-  <si>
-    <t>Lá do Itaqui</t>
   </si>
   <si>
     <t>Laranjja Mecannica</t>
@@ -510,10 +510,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -522,13 +522,13 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1027.720703125</v>
+        <v>1097.630859375</v>
       </c>
       <c r="H2">
-        <v>478.470703125</v>
+        <v>519.210693359375</v>
       </c>
       <c r="I2">
-        <v>549.25</v>
+        <v>578.420166015625</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -551,16 +551,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>999.270263671875</v>
+        <v>1062.0302734375</v>
       </c>
       <c r="H3">
-        <v>472.47021484375</v>
+        <v>538.2802734375</v>
       </c>
       <c r="I3">
-        <v>526.800048828125</v>
+        <v>523.75</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -583,16 +583,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>990.580078125</v>
+        <v>1031.320068359375</v>
       </c>
       <c r="H4">
-        <v>465.60986328125</v>
+        <v>535.52001953125</v>
       </c>
       <c r="I4">
-        <v>524.97021484375</v>
+        <v>495.800048828125</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -606,10 +606,10 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -618,13 +618,13 @@
         <v>4</v>
       </c>
       <c r="G5">
-        <v>964.34033203125</v>
+        <v>1030.150390625</v>
       </c>
       <c r="H5">
-        <v>498.87060546875</v>
+        <v>561.630615234375</v>
       </c>
       <c r="I5">
-        <v>465.4697265625</v>
+        <v>468.519775390625</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -683,10 +683,10 @@
         <v>16</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -695,13 +695,13 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>977.5693359375</v>
+        <v>1046.8291015625</v>
       </c>
       <c r="H2">
-        <v>387.39990234375</v>
+        <v>450.9599609375</v>
       </c>
       <c r="I2">
-        <v>590.16943359375</v>
+        <v>595.869140625</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -715,10 +715,10 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>3</v>
       </c>
       <c r="G3">
-        <v>1002.580078125</v>
+        <v>938.2998046875</v>
       </c>
       <c r="H3">
-        <v>505.34033203125</v>
+        <v>525.419677734375</v>
       </c>
       <c r="I3">
-        <v>497.23974609375</v>
+        <v>412.880126953125</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -756,16 +756,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>998.211181640625</v>
+        <v>1062.06005859375</v>
       </c>
       <c r="H4">
-        <v>475.50048828125</v>
+        <v>579.00048828125</v>
       </c>
       <c r="I4">
-        <v>522.710693359375</v>
+        <v>483.0595703125</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>864.6396484375</v>
+        <v>1061.771240234375</v>
       </c>
       <c r="H5">
-        <v>465.939697265625</v>
+        <v>544.76025390625</v>
       </c>
       <c r="I5">
-        <v>398.699951171875</v>
+        <v>517.010986328125</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -856,10 +856,10 @@
         <v>21</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>970.340087890625</v>
+        <v>1059.949951171875</v>
       </c>
       <c r="H2">
-        <v>370.0394287109375</v>
+        <v>441.2493896484375</v>
       </c>
       <c r="I2">
-        <v>600.3006591796875</v>
+        <v>618.7005615234375</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -888,10 +888,10 @@
         <v>22</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -900,13 +900,13 @@
         <v>3</v>
       </c>
       <c r="G3">
-        <v>880.900390625</v>
+        <v>940.5704345703125</v>
       </c>
       <c r="H3">
-        <v>367.220703125</v>
+        <v>431.88037109375</v>
       </c>
       <c r="I3">
-        <v>513.6796875</v>
+        <v>508.6900634765625</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -929,16 +929,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>873.7305908203125</v>
+        <v>952.1103515625</v>
       </c>
       <c r="H4">
-        <v>377.790283203125</v>
+        <v>456.83056640625</v>
       </c>
       <c r="I4">
-        <v>495.9403076171875</v>
+        <v>495.27978515625</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -961,16 +961,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>823.309814453125</v>
+        <v>877.39990234375</v>
       </c>
       <c r="H5">
-        <v>416.57080078125</v>
+        <v>483.41064453125</v>
       </c>
       <c r="I5">
-        <v>406.739013671875</v>
+        <v>393.9892578125</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1029,10 +1029,10 @@
         <v>26</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1041,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>985.5703125</v>
+        <v>1044.0302734375</v>
       </c>
       <c r="H2">
-        <v>378.400390625</v>
+        <v>422.8603515625</v>
       </c>
       <c r="I2">
-        <v>607.169921875</v>
+        <v>621.169921875</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1070,16 +1070,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>872.429931640625</v>
+        <v>911.669921875</v>
       </c>
       <c r="H3">
-        <v>435.249755859375</v>
+        <v>504.549560546875</v>
       </c>
       <c r="I3">
-        <v>437.18017578125</v>
+        <v>407.120361328125</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>915.739013671875</v>
+        <v>960.198974609375</v>
       </c>
       <c r="H4">
-        <v>408.349609375</v>
+        <v>466.8095703125</v>
       </c>
       <c r="I4">
-        <v>507.389404296875</v>
+        <v>493.389404296875</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1125,10 +1125,10 @@
         <v>29</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1137,13 +1137,13 @@
         <v>5</v>
       </c>
       <c r="G5">
-        <v>883.049560546875</v>
+        <v>952.349365234375</v>
       </c>
       <c r="H5">
-        <v>445.61962890625</v>
+        <v>484.859619140625</v>
       </c>
       <c r="I5">
-        <v>437.429931640625</v>
+        <v>467.48974609375</v>
       </c>
       <c r="J5">
         <v>4</v>
